--- a/data/backstop_note_sweep.xlsx
+++ b/data/backstop_note_sweep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenneth\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68E22FE-E580-4A2C-83FB-96DFEE5421E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10C2370-A730-4B88-BA4A-D2F77771CD10}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="3300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -132,6 +132,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,13 +454,13 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="9" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
@@ -467,7 +472,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -490,7 +495,7 @@
       <c r="A2" s="4">
         <v>10000000</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="8">
         <v>43510</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -511,7 +516,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>